--- a/144 - 自定义构造4 - Dice Rolls and RNG Seeds - 掷骰子和随机数种子.xlsx
+++ b/144 - 自定义构造4 - Dice Rolls and RNG Seeds - 掷骰子和随机数种子.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="说明" sheetId="4" r:id="rId1"/>
     <sheet name="Note标签" sheetId="1" r:id="rId2"/>
     <sheet name="插件指令" sheetId="2" r:id="rId3"/>
     <sheet name="插件参数" sheetId="3" r:id="rId4"/>
@@ -582,7 +582,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="463">
   <si>
     <t>在游戏中使用随机元素的游戏可以通过使用可视化骰子来让玩家了解随机背后发生的逻辑，从而受益。
 开关、物品和技能等各种东西也会影响Roll值，让玩家对RNG的本质有更多的控制权。
@@ -966,6 +966,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Randomized puzzles</t>
     </r>
     <r>
@@ -1003,6 +1010,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Randomized cutscenes</t>
     </r>
     <r>
@@ -1042,6 +1056,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Randomized gambling</t>
     </r>
     <r>
@@ -1080,6 +1101,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Randomized choices</t>
     </r>
     <r>
@@ -1346,6 +1374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许 &lt;Shuffle&gt; 文本代码使用</t>
     </r>
     <r>
@@ -1386,6 +1421,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许 &lt;Shuffle&gt; 文本代码使用</t>
     </r>
     <r>
@@ -1426,6 +1468,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许 &lt;Shuffle&gt; 文本代码使用</t>
     </r>
     <r>
@@ -1466,6 +1515,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>允许 &lt;Shuffle&gt; 文本代码使用</t>
     </r>
     <r>
@@ -1537,6 +1593,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Appearance Overrides:  外观替代</t>
     </r>
     <r>
@@ -1692,6 +1756,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>General Auto-Effects:  常规 自动效果</t>
     </r>
     <r>
@@ -1867,6 +1939,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Reference Data:  参考数据</t>
     </r>
     <r>
@@ -2216,6 +2296,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Dice Effects:  骰子效果</t>
     </r>
     <r>
@@ -2328,6 +2416,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Additional Text:  附加文本</t>
     </r>
     <r>
@@ -2391,6 +2487,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Effect Conditions:  效果条件</t>
     </r>
     <r>
@@ -2459,6 +2563,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>General Bonus Effects:  常规加成效果</t>
     </r>
     <r>
@@ -2595,6 +2707,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bonus Effect Name:  加成效果名称</t>
     </r>
     <r>
@@ -2657,6 +2777,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Effect Costs:  效果消耗</t>
     </r>
     <r>
@@ -2940,6 +3068,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Skill Cost ID:  技能消耗ID</t>
     </r>
     <r>
@@ -3118,6 +3254,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Maximum Uses:  最大使用量
 </t>
     </r>
@@ -3167,6 +3311,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Additional Text:  附加文本</t>
     </r>
     <r>
@@ -3278,6 +3430,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Effect Conditions:  效果条件</t>
     </r>
     <r>
@@ -3440,6 +3600,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将value添加到当前骰子计数。
  - 与</t>
     </r>
@@ -3489,6 +3656,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将value添加到当前骰子 优势/劣势。
  - 与</t>
     </r>
@@ -3539,6 +3713,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">将value添加到当前的骰子Rank。
  - Rank取值范围为 1 - 6
 </t>
@@ -3594,6 +3775,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将value添加到当前骰子修正值 或 骰子修正值取值范围。
  - 最好与您可以添加到掷骰子插件命令的Bonus效果中的“</t>
     </r>
@@ -3632,6 +3820,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>返回从“seed”随机化的浮点值（0到1之间的十进制数）。
 ·</t>
     </r>
@@ -3676,6 +3871,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">重置随机数生成器“种子”集的种子状态。
 </t>
     </r>
@@ -3712,7 +3914,1902 @@
   - $resetUniqueRngSeed("VisuStella")</t>
   </si>
   <si>
-    <t>（暂略）</t>
+    <t>Dice Roll Settings    掷骰子设置</t>
+  </si>
+  <si>
+    <t>调整骰子掷骰子设置以适应您的游戏。这些内容从机制到多边骰子在游戏中的显示方式以及滚动动画的播放方式。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果你</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各种侧面骰子的图像，不要担心。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个插件将使用预渲染的图形来生成它们以供使用。</t>
+    </r>
+  </si>
+  <si>
+    <t>Mechanics:</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>Max Dice Count:</t>
+  </si>
+  <si>
+    <t>一次最多可以掷多少个骰子？</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dice Appearances:</t>
+  </si>
+  <si>
+    <t>骰子外观：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D4 Appearance:
+ D6 Appearance:
+ D8 Appearance:
+ D10 Appearance:
+ D12 Appearance:
+ D20 Appearance:</t>
+  </si>
+  <si>
+    <t>在此处调整骰子的骰子外观设置。</t>
+  </si>
+  <si>
+    <t>Image Filename(s):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对此骰子使用自定义图像？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·优先于颜色。
+·位置：img/pictures/</t>
+    </r>
+  </si>
+  <si>
+    <t>Dice Colors(s):</t>
+  </si>
+  <si>
+    <t>对自定义颜色使用#rrggbb，对“Window Skin”中的文本颜色使用常规数字。</t>
+  </si>
+  <si>
+    <t>Number Settings:</t>
+  </si>
+  <si>
+    <t>数字设置：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Font Size:</t>
+  </si>
+  <si>
+    <t>骰子数字使用的字体大小。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Number Outline:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数字描边的宽度是多少？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0：不使用描边</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Offset X:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">偏移数字x的位置。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：左。  正：右</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Offset Y:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">偏移数字y的位置。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。  正：下</t>
+    </r>
+  </si>
+  <si>
+    <t>Position Settings:</t>
+  </si>
+  <si>
+    <t>位置设置：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">偏移精灵x的位置。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：左。  正：右</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">偏移精灵y的位置。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。  正：下</t>
+    </r>
+  </si>
+  <si>
+    <t>Color Ratios</t>
+  </si>
+  <si>
+    <t>颜色比率</t>
+  </si>
+  <si>
+    <t>Border Ratio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">边框比例：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于生成的颜色。
+-边框颜色的暗度比率。</t>
+    </r>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>Color 1 Ratio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">颜色1比例：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于生成的颜色。
+-深色的暗度比率。</t>
+    </r>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>Color 2 Ratio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">颜色2比例：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于生成的颜色。
+-中间颜色的暗度比率。</t>
+    </r>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>Color 3 Ratio:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">颜色3比例：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于生成的颜色。
+-主色的暗度比率。</t>
+    </r>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Arrange Offset:</t>
+  </si>
+  <si>
+    <t>排列偏移：</t>
+  </si>
+  <si>
+    <t>Offset X:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偏移骰子排列x的位置。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  负：左。  正：右</t>
+    </r>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>Offset Y:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">偏移骰子排列y的位置。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上。  正：下</t>
+    </r>
+  </si>
+  <si>
+    <t>Fade Settings:</t>
+  </si>
+  <si>
+    <t>淡入淡出设置：</t>
+  </si>
+  <si>
+    <t>Fade In Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>淡入持续时间：-骰子需要多少帧才能淡入？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Fade Out Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>淡出持续时间：-需要多少帧才能淡出骰子？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Finalize Delay:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完成延迟：    -需要等待多少帧才能淡出？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Rolling Effect:</t>
+  </si>
+  <si>
+    <t>滚动效果：</t>
+  </si>
+  <si>
+    <t>Dice Roll Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>掷骰子持续时间：-掷骰子需要多少帧？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>Between Roll Delay:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多个骰子之间有多少帧？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dice Roll Height:</t>
+  </si>
+  <si>
+    <t>骰子应该跳到多高，以像素为单位滚动？</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Dice Rotate Speed:</t>
+  </si>
+  <si>
+    <t>骰子在滚动时每帧旋转多少度？</t>
+  </si>
+  <si>
+    <t>+15</t>
+  </si>
+  <si>
+    <t>Movement Settings:</t>
+  </si>
+  <si>
+    <t>移动设置：</t>
+  </si>
+  <si>
+    <t>Move Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">移动持续时间：  -移动骰子需要多少帧？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>Scaling Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">缩放持续时间：  -更改骰子比例需要多少帧？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Number Climb Tick:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数字爬升刻度：  -数字刻度之间有多少帧？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒</t>
+    </r>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Max Number Duration:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">最长数字持续时间：  -要处理的最大帧数是多少？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Number Color Shift:</t>
+  </si>
+  <si>
+    <t>数字颜色偏移：  -是否允许骰子数字颜色因修改器而更改？</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Pre-Modifier Delay:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">预修改器延迟：  -在应用修改器之前延迟帧？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60帧＝1秒。</t>
+    </r>
+  </si>
+  <si>
+    <t>Random Seed Settings    随机种子设置</t>
+  </si>
+  <si>
+    <t>随机数种子是使用线性同余生成器（LCG）算法生成的，以产生用几乎可预测但不重复的分段线性方程计算的伪随机数序列。</t>
+  </si>
+  <si>
+    <t>有关该算法的更多信息，请点击此处：</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Linear_congruential_generator</t>
+  </si>
+  <si>
+    <t>Linear Congruential Generator  线性同余产生器</t>
+  </si>
+  <si>
+    <t>Modulus:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">模量：-线性同余生成模。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-除非你知道自己在做什么，否则不要改变。</t>
+    </r>
+  </si>
+  <si>
+    <t>2147483648</t>
+  </si>
+  <si>
+    <t>Multiplier:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">乘数：-线性同余生成器乘法器。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-除非你知道自己在做什么，否则不要改变。</t>
+    </r>
+  </si>
+  <si>
+    <t>1103515245</t>
+  </si>
+  <si>
+    <t>Increment:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">增量：-线性同余生成器增量。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-除非你知道自己在做什么，否则不要改变。</t>
+    </r>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Action Defaults</t>
+  </si>
+  <si>
+    <t>操作默认值</t>
+  </si>
+  <si>
+    <t>Default RNG Seed?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">默认RNG种子？
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-用于操作的默认种子。
+auto：可根据物品或技能的数据库名称自动创建种子。
+保留为空或“none”：不使用</t>
+    </r>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Sound Settings  声音设置</t>
+  </si>
+  <si>
+    <t>Sound Types</t>
+  </si>
+  <si>
+    <t>声音类型</t>
+  </si>
+  <si>
+    <t>Filename:</t>
+  </si>
+  <si>
+    <t>Dice Throw Sound:</t>
+  </si>
+  <si>
+    <t>掷骰子声音</t>
+  </si>
+  <si>
+    <t>Bow2</t>
+  </si>
+  <si>
+    <t>Increment Tick Sound:</t>
+  </si>
+  <si>
+    <t>增量滴答声</t>
+  </si>
+  <si>
+    <t>Cursor1</t>
+  </si>
+  <si>
+    <t>Bonus Use Sound:</t>
+  </si>
+  <si>
+    <t>奖励使用声音</t>
+  </si>
+  <si>
+    <t>Skill3</t>
+  </si>
+  <si>
+    <t>Roll Success Sound:</t>
+  </si>
+  <si>
+    <t>Roll点 成功 声音</t>
+  </si>
+  <si>
+    <t>Chime2</t>
+  </si>
+  <si>
+    <t>Roll Failure Sound:</t>
+  </si>
+  <si>
+    <t>Roll点 失败 声音</t>
+  </si>
+  <si>
+    <t>Buzzer2</t>
+  </si>
+  <si>
+    <t>Critical Failure Sound:</t>
+  </si>
+  <si>
+    <t>大失败声音</t>
+  </si>
+  <si>
+    <t>Bell2</t>
+  </si>
+  <si>
+    <t>Critical Success Sound:</t>
+  </si>
+  <si>
+    <t>大成功声音</t>
+  </si>
+  <si>
+    <t>Battle2</t>
+  </si>
+  <si>
+    <t>Filename:
+Volume:
+Pitch:
+Pan:</t>
+  </si>
+  <si>
+    <t>文件名，以及音频的三个经典参数</t>
+  </si>
+  <si>
+    <t>Vocabulary Settings  词汇设置</t>
+  </si>
+  <si>
+    <t>Command Window:</t>
+  </si>
+  <si>
+    <t>命令窗口</t>
+  </si>
+  <si>
+    <t>Roll Command:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用于 Roll Dice 命令的文本。   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Roll Dice</t>
+  </si>
+  <si>
+    <t>掷骰子</t>
+  </si>
+  <si>
+    <t>Effects Command:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于 View Effects 命令的文本。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>View Effects</t>
+  </si>
+  <si>
+    <t>查看效果</t>
+  </si>
+  <si>
+    <t>Bonus Command:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用于 Add Bonus 命令的文本。   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Add Bonus</t>
+  </si>
+  <si>
+    <t>加成</t>
+  </si>
+  <si>
+    <t>Text Colors:</t>
+  </si>
+  <si>
+    <t>文字颜色</t>
+  </si>
+  <si>
+    <t>·用于此效果类型的文本颜色。    ·从“窗口外观”插入文本颜色的编号</t>
+  </si>
+  <si>
+    <t>Dice Count Up:</t>
+  </si>
+  <si>
+    <t>骰子计数上升：</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Dice Count Down:</t>
+  </si>
+  <si>
+    <t>骰子计数下降：</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Dice Rank Up:</t>
+  </si>
+  <si>
+    <t>骰子Rank上升：</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Dice Rank Down:</t>
+  </si>
+  <si>
+    <t>骰子Rank下降：</t>
+  </si>
+  <si>
+    <t>Roll Modifier Up:</t>
+  </si>
+  <si>
+    <t>Roll点修正上升</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Roll Modifier Down:</t>
+  </si>
+  <si>
+    <t>Roll点修正下降</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Data Window Labels:</t>
+  </si>
+  <si>
+    <t>数据窗口标签：</t>
+  </si>
+  <si>
+    <t>·用于显示此数据标签的文本。    ·允许使用文本代码。</t>
+  </si>
+  <si>
+    <t>Dice Count:</t>
+  </si>
+  <si>
+    <t>骰子计数</t>
+  </si>
+  <si>
+    <t>\C[16]Dice Count:</t>
+  </si>
+  <si>
+    <t>Advantage:</t>
+  </si>
+  <si>
+    <t>有利</t>
+  </si>
+  <si>
+    <t>\C[24]Advantage:</t>
+  </si>
+  <si>
+    <t>Disadvantage:</t>
+  </si>
+  <si>
+    <t>不利</t>
+  </si>
+  <si>
+    <t>\C[27]Disadvantage:</t>
+  </si>
+  <si>
+    <t>Dice Rank:</t>
+  </si>
+  <si>
+    <t>骰子等级</t>
+  </si>
+  <si>
+    <t>\C[16]Dice Rank:</t>
+  </si>
+  <si>
+    <t>Modifiers:</t>
+  </si>
+  <si>
+    <t>修正值</t>
+  </si>
+  <si>
+    <t>\C[16]Modifiers:</t>
+  </si>
+  <si>
+    <t>Data Window Ranks:</t>
+  </si>
+  <si>
+    <t>数据窗口等级：</t>
+  </si>
+  <si>
+    <t>·用于显示此骰子等级的文本。    ·允许使用文本代码。</t>
+  </si>
+  <si>
+    <t>Rank 1: D4:</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Rank 2: D6:</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>Rank 3: D8:</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Rank 4: D10:</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Rank 5: D12:</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>Rank 6: D20:</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>Dice Effects:</t>
+  </si>
+  <si>
+    <t>骰子效果：</t>
+  </si>
+  <si>
+    <t>Dice Display Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">骰子显示格式：-骰子的整体效果是如何显示的。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果</t>
+    </r>
+  </si>
+  <si>
+    <t>\}%1\{</t>
+  </si>
+  <si>
+    <t>Pre/Post-Effect:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">前/后效果：-前/后效果的显示方式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：前一个;   %2：后一个</t>
+    </r>
+  </si>
+  <si>
+    <t>%1 %2</t>
+  </si>
+  <si>
+    <t>Order Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">顺序格式：-骰子效果使用的顺序格式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：计数;   %2：Rank;   %3：修正值</t>
+    </r>
+  </si>
+  <si>
+    <t>%1 %2 %3</t>
+  </si>
+  <si>
+    <t>Positive Plus Sign?:</t>
+  </si>
+  <si>
+    <t>对正数显示+号？</t>
+  </si>
+  <si>
+    <t>Dice Count Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">骰子计数格式：-用于骰子计数效果的文本格式。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果数字</t>
+    </r>
+  </si>
+  <si>
+    <t>Dice%1</t>
+  </si>
+  <si>
+    <t>Advantage Format:</t>
+  </si>
+  <si>
+    <r>
+      <t>用于优势效果的文本格式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果数字</t>
+    </r>
+  </si>
+  <si>
+    <t>Adv%1</t>
+  </si>
+  <si>
+    <t>Disadvantage Format:</t>
+  </si>
+  <si>
+    <r>
+      <t>用于劣势效果的文本格式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果数字</t>
+    </r>
+  </si>
+  <si>
+    <t>Dis%1</t>
+  </si>
+  <si>
+    <t>Dice Rank Format:</t>
+  </si>
+  <si>
+    <r>
+      <t>用于骰子等级效果的文本格式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果数字</t>
+    </r>
+  </si>
+  <si>
+    <t>Rank%1</t>
+  </si>
+  <si>
+    <t>Roll Modifier Format:</t>
+  </si>
+  <si>
+    <r>
+      <t>Roll修正值的文本格式。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：效果数字</t>
+    </r>
+  </si>
+  <si>
+    <t>Roll%1</t>
+  </si>
+  <si>
+    <t>Effect Costs:</t>
+  </si>
+  <si>
+    <t>效果 Costs</t>
+  </si>
+  <si>
+    <t>Cost Display Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cost显示格式。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Cost文本</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre/Post-Cost:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如何显示前/后Cost文本。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：前一个;   %2：后一个</t>
+    </r>
+  </si>
+  <si>
+    <t>Used Up:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"已使用"的显示方式。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>USED!</t>
+  </si>
+  <si>
+    <t>Use Times Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使用次数的格式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：当前;     %2：最大使用量;     %3：剩余</t>
+    </r>
+  </si>
+  <si>
+    <t>(×%1/%2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Show Max Use of 1?:</t>
+  </si>
+  <si>
+    <t>当最大使用次数只有1次时，显示使用成本？</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unlimited Uses:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用于表示无限制使用的文本。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>Variable Cost Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">变量cost格式。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Cost; %2 - 数量</t>
+    </r>
+  </si>
+  <si>
+    <t>(×%2-%1)</t>
+  </si>
+  <si>
+    <t>Item Cost Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">道具cost格式。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Cost; %2 - 数量</t>
+    </r>
+  </si>
+  <si>
+    <t>Weapon Cost Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">武器cost格式。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Cost; %2 - 数量</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Armor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cost Format:</t>
+    </r>
+  </si>
+  <si>
+    <t>Skill User's Name:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">技能使用者的名称。  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Name</t>
+    </r>
+  </si>
+  <si>
+    <t>[%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  User to Cost Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">技能使用者名称如何显示到Cost。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1：名称; %2：技能Cost</t>
+    </r>
+  </si>
+  <si>
+    <t>%1➤%2</t>
+  </si>
+  <si>
+    <t>Subtitle Window:</t>
+  </si>
+  <si>
+    <t>子标题窗口：</t>
+  </si>
+  <si>
+    <t>Roll for Total:</t>
+  </si>
+  <si>
+    <t>Roll点总和 的子标题文本</t>
+  </si>
+  <si>
+    <t>Roll for \C[23]total\C[0] number</t>
+  </si>
+  <si>
+    <t>Roll for Highest:</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>Roll for \C[24]highest\C[0] number</t>
+  </si>
+  <si>
+    <t>Roll for Average:</t>
+  </si>
+  <si>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>Roll for \C[21]average\C[0] number</t>
+  </si>
+  <si>
+    <t>Roll for Lowest:</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>Roll for \C[21]lowest\C[0] number</t>
+  </si>
+  <si>
+    <t>Roll: &gt; Target:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">大于目标。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Target Roll</t>
+    </r>
+  </si>
+  <si>
+    <t>\C[5]Difficulty Class:\C[0] Above \C[24]%1\C[0]</t>
+  </si>
+  <si>
+    <t>Roll: &gt;= Target:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">大于等于目标  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Target Roll</t>
+    </r>
+  </si>
+  <si>
+    <t>\C[5]Difficulty Class:\C[0] At least \C[24]%1\C[0]</t>
+  </si>
+  <si>
+    <t>Roll: &lt;= Target:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">小于等于目标  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Target Roll</t>
+    </r>
+  </si>
+  <si>
+    <t>\C[5]Difficulty Class:\C[0] At most \C[24]%1\C[0]</t>
+  </si>
+  <si>
+    <t>Roll: &lt; Target:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">小于目标      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%1 - Target Roll</t>
+    </r>
+  </si>
+  <si>
+    <t>\C[5]Difficulty Class:\C[0] Below \C[24]%1\C[0]</t>
+  </si>
+  <si>
+    <t>Critical Success:</t>
+  </si>
+  <si>
+    <t>在 Natural Roll 中，获得 Critical Success 的子标题文本。</t>
+  </si>
+  <si>
+    <t>\C[17]CRITICAL SUCCESS!</t>
+  </si>
+  <si>
+    <t>Critical Failure:</t>
+  </si>
+  <si>
+    <t>在 Natural Roll 中，获得 Critical Failure 的子标题文本。</t>
+  </si>
+  <si>
+    <t>\C[2]CRITICAL FAILURE!</t>
+  </si>
+  <si>
+    <t>Window Settings  窗口设置</t>
+  </si>
+  <si>
+    <t>Sprite Container:</t>
+  </si>
+  <si>
+    <t>精灵容器</t>
+  </si>
+  <si>
+    <t>JS: X, Y, W, H:</t>
+  </si>
+  <si>
+    <t>(js略)</t>
+  </si>
+  <si>
+    <t>Title Window:</t>
+  </si>
+  <si>
+    <t>标题窗口</t>
+  </si>
+  <si>
+    <t>Background Type:</t>
+  </si>
+  <si>
+    <t>窗口的背景类型</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Data Windows:</t>
+  </si>
+  <si>
+    <t>数据窗口</t>
+  </si>
+  <si>
+    <t>Dice Count: BG Type:</t>
+  </si>
+  <si>
+    <t>骰子数量：BG类型：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS: X, Y, W, H:</t>
+  </si>
+  <si>
+    <t>Dice Rank: BG Type:</t>
+  </si>
+  <si>
+    <t>骰子等级：BG类型：</t>
+  </si>
+  <si>
+    <t>Modifier: BG Type:</t>
+  </si>
+  <si>
+    <t>修改器：BG类型：</t>
+  </si>
+  <si>
+    <t>Show "View Effects"?:</t>
+  </si>
+  <si>
+    <t>是否显示“查看效果”命令？</t>
+  </si>
+  <si>
+    <t>Show "Add Bonus"?:</t>
+  </si>
+  <si>
+    <t>是否显示“追加奖励”命令？</t>
+  </si>
+  <si>
+    <t>Text Align:</t>
+  </si>
+  <si>
+    <t>是否对此窗口进行文本对齐？</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>List Windows:</t>
+  </si>
+  <si>
+    <t>列表窗口</t>
+  </si>
+  <si>
+    <t>Effect List: BG Type:</t>
+  </si>
+  <si>
+    <t>效果列表：BG类型</t>
+  </si>
+  <si>
+    <t>Bonus List: BG Type:</t>
+  </si>
+  <si>
+    <t>奖励列表：BG类型</t>
+  </si>
+  <si>
+    <t>Window Columns:</t>
+  </si>
+  <si>
+    <t>窗口使用多少个列？</t>
+  </si>
+  <si>
+    <t>Column Spacing:</t>
+  </si>
+  <si>
+    <t>列之间的间距是多少？</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -3725,7 +5822,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3734,9 +5831,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3750,8 +5846,60 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3782,13 +5930,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3800,29 +5941,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3962,6 +6080,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3975,23 +6100,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4008,12 +6119,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4023,13 +6140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4398,61 +6527,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4461,163 +6581,226 @@
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5098,8 +7281,8 @@
   <sheetPr/>
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5109,7 +7292,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5174,149 +7357,149 @@
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" ht="27" spans="2:2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="2:2">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="40.5" spans="2:2">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="2:2">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="27" spans="2:2">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" ht="81" spans="2:2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="48" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" ht="54" spans="2:2">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" ht="54" spans="2:2">
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" ht="54" spans="2:2">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="2:2">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="2:2">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" ht="27" spans="2:2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" ht="27" spans="2:2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="39" ht="40.5" spans="2:2">
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="2:2">
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" ht="40.5" spans="2:2">
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="40" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" ht="54" spans="2:2">
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" ht="81" spans="2:2">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="27"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" ht="27" spans="2:2">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5326,37 +7509,37 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" ht="27" spans="2:2">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" ht="40.5" spans="2:2">
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="2:2">
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:2">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5366,17 +7549,17 @@
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="2:2">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="30" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5386,27 +7569,27 @@
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="68" ht="27" spans="2:2">
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="69" ht="54" spans="2:2">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="48" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" ht="40.5" spans="2:2">
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="48" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" ht="40.5" spans="2:2">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="48" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5423,7 +7606,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5435,29 +7618,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" ht="154.5" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="44" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
@@ -5465,28 +7648,28 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="16"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5494,7 +7677,7 @@
       <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5502,7 +7685,7 @@
       <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5510,15 +7693,15 @@
       <c r="A12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="108" spans="1:2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="43" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5534,8 +7717,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5547,146 +7730,146 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" ht="297" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" ht="229.5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="33" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" ht="409" customHeight="1" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" ht="189" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" ht="229.5" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" ht="175.5" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" ht="175.5" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" ht="54" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" ht="189" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" ht="175.5" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" ht="175.5" spans="1:2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="33" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="30" t="s">
         <v>105</v>
       </c>
       <c r="B21" t="s">
@@ -5694,7 +7877,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="30" t="s">
         <v>107</v>
       </c>
       <c r="B22" t="s">
@@ -5702,78 +7885,78 @@
       </c>
     </row>
     <row r="24" ht="20.25" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="39"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" ht="40.5" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" ht="40.5" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" ht="112.5" spans="1:2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="40" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="43" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5792,27 +7975,1515 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="65.875" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A1" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" ht="81" spans="1:4">
+      <c r="A8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" ht="37.5" spans="1:2">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" ht="37.5" spans="1:3">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" ht="37.5" spans="1:3">
+      <c r="A21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" ht="37.5" spans="1:3">
+      <c r="A22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" ht="37.5" spans="1:3">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:3">
+      <c r="A24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:3">
+      <c r="A27" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:3">
+      <c r="A36" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:3">
+      <c r="A47" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="1:3">
+      <c r="A51" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="11"/>
+    </row>
+    <row r="52" ht="49.5" spans="1:3">
+      <c r="A52" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A54" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:3">
+      <c r="A55" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" ht="54" spans="1:2">
+      <c r="A63" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A65" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:3">
+      <c r="A66" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="11"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:3">
+      <c r="A71" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:3">
+      <c r="A78" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="11"/>
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:3">
+      <c r="A79" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>307</v>
+      </c>
+      <c r="B81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>316</v>
+      </c>
+      <c r="B84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:3">
+      <c r="A85" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C85" s="11"/>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:3">
+      <c r="A86" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="24"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="1:3">
+      <c r="A93" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" ht="25.5" spans="1:3">
+      <c r="A94" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" ht="25.5" spans="1:3">
+      <c r="A95" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" spans="1:3">
+      <c r="A96" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:3">
+      <c r="A103" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>364</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>366</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>368</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" spans="1:3">
+      <c r="A107" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" t="s">
+        <v>375</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>380</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>385</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>388</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>391</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:3">
+      <c r="A116" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>396</v>
+      </c>
+      <c r="B117" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>399</v>
+      </c>
+      <c r="B118" t="s">
+        <v>400</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>402</v>
+      </c>
+      <c r="B119" t="s">
+        <v>403</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>405</v>
+      </c>
+      <c r="B120" t="s">
+        <v>406</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>408</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>414</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>417</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>420</v>
+      </c>
+      <c r="B125" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>423</v>
+      </c>
+      <c r="B126" t="s">
+        <v>424</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A128" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" s="2" customFormat="1" spans="1:3">
+      <c r="A129" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C129" s="11"/>
+    </row>
+    <row r="130" s="4" customFormat="1" spans="1:3">
+      <c r="A130" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" s="2" customFormat="1" spans="1:3">
+      <c r="A131" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>433</v>
+      </c>
+      <c r="B132" t="s">
+        <v>434</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="133" s="4" customFormat="1" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" s="2" customFormat="1" spans="1:3">
+      <c r="A134" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C134" s="11"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>433</v>
+      </c>
+      <c r="B135" t="s">
+        <v>434</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="136" s="4" customFormat="1" spans="1:3">
+      <c r="A136" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C136" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="1" spans="1:3">
+      <c r="A137" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C137" s="11"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>438</v>
+      </c>
+      <c r="B138" t="s">
+        <v>439</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" s="4" customFormat="1" spans="1:3">
+      <c r="A139" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>441</v>
+      </c>
+      <c r="B140" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:3">
+      <c r="A141" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>443</v>
+      </c>
+      <c r="B142" t="s">
+        <v>444</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="143" s="4" customFormat="1" spans="1:3">
+      <c r="A143" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C143" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1" spans="1:3">
+      <c r="A144" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="10"/>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>433</v>
+      </c>
+      <c r="B145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>445</v>
+      </c>
+      <c r="B146" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>447</v>
+      </c>
+      <c r="B147" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>449</v>
+      </c>
+      <c r="B148" t="s">
+        <v>450</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" s="4" customFormat="1" spans="1:3">
+      <c r="A149" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C149" s="28" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="1" spans="1:3">
+      <c r="A150" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C150" s="11"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>454</v>
+      </c>
+      <c r="B151" t="s">
+        <v>455</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>456</v>
+      </c>
+      <c r="B152" t="s">
+        <v>457</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>458</v>
+      </c>
+      <c r="B153" t="s">
+        <v>459</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" t="s">
+        <v>461</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="155" s="4" customFormat="1" spans="1:3">
+      <c r="A155" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C155" s="28" t="s">
+        <v>430</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B46" r:id="rId2" display="https://en.wikipedia.org/wiki/Linear_congruential_generator"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
